--- a/s60_signal/position-01186-601186.xlsx
+++ b/s60_signal/position-01186-601186.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="647">
   <si>
     <t>trade_time</t>
   </si>
@@ -928,13 +928,13 @@
     <t>2021-06-28</t>
   </si>
   <si>
-    <t>2021-04-28</t>
+    <t>2021-06-21</t>
   </si>
   <si>
     <t>2021-05-14</t>
   </si>
   <si>
-    <t>2021-05-26</t>
+    <t>2021-05-25</t>
   </si>
   <si>
     <t>2021-07-02</t>
@@ -949,12 +949,12 @@
     <t>2021-06-22</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2021-06-30</t>
   </si>
   <si>
-    <t>2021-07-07</t>
-  </si>
-  <si>
     <t>2016-02-01</t>
   </si>
   <si>
@@ -1501,10 +1501,7 @@
     <t>2021-05-06</t>
   </si>
   <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2021-06-09</t>
@@ -1958,9 +1955,6 @@
   </si>
   <si>
     <t>2021-06-25</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1174"/>
+  <dimension ref="A1:P1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2418,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2468,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2518,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2568,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2618,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2668,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2718,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2768,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2818,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2868,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2918,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2968,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3018,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3068,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3118,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3168,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3218,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3268,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3318,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -3368,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3418,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3468,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3518,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3568,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3618,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3668,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3718,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3768,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3818,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3868,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3918,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3968,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -4018,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -4068,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -4118,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -4718,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4768,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4818,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4868,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4918,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4968,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -5018,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -5068,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5118,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -5168,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -5218,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -5268,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -5318,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -5368,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5418,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5468,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5518,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5568,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5618,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5668,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5718,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5768,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5818,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5868,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5918,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5968,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6018,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6068,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6118,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6168,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6218,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -6268,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -6318,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6368,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6418,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6918,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6968,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7018,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7068,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7118,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7168,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7218,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7268,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -7318,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -7368,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7418,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7468,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7518,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7568,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7618,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7668,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7718,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7768,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7818,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7868,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8068,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8118,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8168,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8218,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8268,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8318,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8368,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8418,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8468,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -8518,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8568,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -9468,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9518,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9568,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -9618,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9668,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9718,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9768,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9818,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9868,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9918,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9968,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10018,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10068,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10118,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10168,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10218,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10268,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10318,7 +10312,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10368,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10418,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -11018,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -11068,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -11118,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -11168,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -11218,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11268,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11318,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11368,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11418,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11468,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11518,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11568,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11618,7 +11612,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11668,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11718,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11768,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11818,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11868,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11918,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11968,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -12018,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -12368,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -12418,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12468,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12518,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12568,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12618,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12668,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12718,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12768,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12818,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12868,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12918,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12968,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -13018,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -13068,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -13118,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -13168,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -13218,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -13268,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13618,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13668,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13718,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13768,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13818,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13868,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13918,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13968,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -14018,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -14068,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -14118,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -14168,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -14218,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -14268,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -14318,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14368,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14418,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14468,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -15818,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15868,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15918,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15968,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -16018,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -16068,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -16118,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -16168,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -16218,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -16368,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -16418,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -16618,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -16668,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -16718,7 +16712,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16768,7 +16762,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16818,7 +16812,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16868,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -17318,7 +17312,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -17368,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -17418,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -17468,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -17518,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -22218,7 +22212,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -22268,7 +22262,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -22318,7 +22312,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -22368,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -22418,7 +22412,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -22468,7 +22462,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -22518,7 +22512,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -22768,7 +22762,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22818,7 +22812,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22868,7 +22862,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -22918,7 +22912,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22968,7 +22962,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -23468,7 +23462,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -23518,7 +23512,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -23568,7 +23562,7 @@
         <v>1</v>
       </c>
       <c r="P425" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -23618,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="P426" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23768,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="P429" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -23818,7 +23812,7 @@
         <v>1</v>
       </c>
       <c r="P430" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -23868,7 +23862,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -23918,7 +23912,7 @@
         <v>1</v>
       </c>
       <c r="P432" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -23968,7 +23962,7 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -24218,7 +24212,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -24268,7 +24262,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -24318,7 +24312,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -24368,7 +24362,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -24418,7 +24412,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -24468,7 +24462,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -24518,7 +24512,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24568,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24618,7 +24612,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24668,7 +24662,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24718,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24768,7 +24762,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24818,7 +24812,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24868,7 +24862,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -24918,7 +24912,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24968,7 +24962,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -25018,7 +25012,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -25068,7 +25062,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -25118,7 +25112,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -25168,7 +25162,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -25218,7 +25212,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -25268,7 +25262,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -25318,7 +25312,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -25368,7 +25362,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -25418,7 +25412,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -25468,7 +25462,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -25518,7 +25512,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -25568,7 +25562,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -25618,7 +25612,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25668,7 +25662,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25718,7 +25712,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25768,7 +25762,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25818,7 +25812,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -25868,7 +25862,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -25918,7 +25912,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25968,7 +25962,7 @@
         <v>1</v>
       </c>
       <c r="P473" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -26018,7 +26012,7 @@
         <v>1</v>
       </c>
       <c r="P474" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -26068,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -26118,7 +26112,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -26168,7 +26162,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -26218,7 +26212,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -26268,7 +26262,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -26318,7 +26312,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -26368,7 +26362,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -26668,7 +26662,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26718,7 +26712,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -26768,7 +26762,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -26818,7 +26812,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -26868,7 +26862,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -27568,7 +27562,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27618,7 +27612,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27668,7 +27662,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27718,7 +27712,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27768,7 +27762,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27818,7 +27812,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -27868,7 +27862,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -27918,7 +27912,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -27968,7 +27962,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -28018,7 +28012,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -28068,7 +28062,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -28118,7 +28112,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -28168,7 +28162,7 @@
         <v>1</v>
       </c>
       <c r="P517" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -28218,7 +28212,7 @@
         <v>1</v>
       </c>
       <c r="P518" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -28268,7 +28262,7 @@
         <v>1</v>
       </c>
       <c r="P519" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -28318,7 +28312,7 @@
         <v>1</v>
       </c>
       <c r="P520" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -28368,7 +28362,7 @@
         <v>1</v>
       </c>
       <c r="P521" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -28418,7 +28412,7 @@
         <v>1</v>
       </c>
       <c r="P522" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -28468,7 +28462,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -28518,7 +28512,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -28568,7 +28562,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -28918,7 +28912,7 @@
         <v>1</v>
       </c>
       <c r="P532" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -28968,7 +28962,7 @@
         <v>1</v>
       </c>
       <c r="P533" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -29018,7 +29012,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -29068,7 +29062,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -29118,7 +29112,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -29168,7 +29162,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -29218,7 +29212,7 @@
         <v>1</v>
       </c>
       <c r="P538" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -29268,7 +29262,7 @@
         <v>1</v>
       </c>
       <c r="P539" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -29318,7 +29312,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -29368,7 +29362,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -29418,7 +29412,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -29468,7 +29462,7 @@
         <v>1</v>
       </c>
       <c r="P543" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -29518,7 +29512,7 @@
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -29568,7 +29562,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -29618,7 +29612,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -29668,7 +29662,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -29718,7 +29712,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -29768,7 +29762,7 @@
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -29818,7 +29812,7 @@
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -29868,7 +29862,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -29918,7 +29912,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29968,7 +29962,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -30018,7 +30012,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -30068,7 +30062,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -30118,7 +30112,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -30168,7 +30162,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -30218,7 +30212,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -30268,7 +30262,7 @@
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -30318,7 +30312,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -30368,7 +30362,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -30418,7 +30412,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -30468,7 +30462,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -30518,7 +30512,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -30568,7 +30562,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30618,7 +30612,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30668,7 +30662,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30718,7 +30712,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30768,7 +30762,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30818,7 +30812,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30868,7 +30862,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -30918,7 +30912,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30968,7 +30962,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -31018,7 +31012,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -31068,7 +31062,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -31118,7 +31112,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -31368,7 +31362,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -31418,7 +31412,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31468,7 +31462,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -31518,7 +31512,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31568,7 +31562,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31868,7 +31862,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31918,7 +31912,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31968,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -32018,7 +32012,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -32068,7 +32062,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -32618,7 +32612,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32668,7 +32662,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32718,7 +32712,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32768,7 +32762,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32818,7 +32812,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32868,7 +32862,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32918,7 +32912,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -33218,7 +33212,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -33268,7 +33262,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -33318,7 +33312,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -33368,7 +33362,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -33418,7 +33412,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -33468,7 +33462,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33518,7 +33512,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33568,7 +33562,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -33618,7 +33612,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33668,7 +33662,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33718,7 +33712,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33768,7 +33762,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33818,7 +33812,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33868,7 +33862,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33918,7 +33912,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33968,7 +33962,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -34018,7 +34012,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -34318,7 +34312,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -34368,7 +34362,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -34418,7 +34412,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -34468,7 +34462,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -34518,7 +34512,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -34568,7 +34562,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -34618,7 +34612,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -34668,7 +34662,7 @@
         <v>1</v>
       </c>
       <c r="P647" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -34718,7 +34712,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -35318,7 +35312,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -35368,7 +35362,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -35418,7 +35412,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -35468,7 +35462,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -35518,7 +35512,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -35568,7 +35562,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -35618,7 +35612,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -35668,7 +35662,7 @@
         <v>1</v>
       </c>
       <c r="P667" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -35718,7 +35712,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -35768,7 +35762,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35818,7 +35812,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35868,7 +35862,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35918,7 +35912,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35968,7 +35962,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -36018,7 +36012,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -36068,7 +36062,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -36118,7 +36112,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -36168,7 +36162,7 @@
         <v>1</v>
       </c>
       <c r="P677" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -36218,7 +36212,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -36268,7 +36262,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -36318,7 +36312,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -36368,7 +36362,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -36418,7 +36412,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -36468,7 +36462,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -36518,7 +36512,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -36568,7 +36562,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -36618,7 +36612,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -36668,7 +36662,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -36718,7 +36712,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36768,7 +36762,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36818,7 +36812,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36868,7 +36862,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -36918,7 +36912,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36968,7 +36962,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -37218,7 +37212,7 @@
         <v>1</v>
       </c>
       <c r="P698" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -37268,7 +37262,7 @@
         <v>1</v>
       </c>
       <c r="P699" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -37318,7 +37312,7 @@
         <v>1</v>
       </c>
       <c r="P700" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -37368,7 +37362,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -37418,7 +37412,7 @@
         <v>1</v>
       </c>
       <c r="P702" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -37468,7 +37462,7 @@
         <v>1</v>
       </c>
       <c r="P703" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -37518,7 +37512,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -37568,7 +37562,7 @@
         <v>1</v>
       </c>
       <c r="P705" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -37618,7 +37612,7 @@
         <v>1</v>
       </c>
       <c r="P706" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -37668,7 +37662,7 @@
         <v>1</v>
       </c>
       <c r="P707" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -37718,7 +37712,7 @@
         <v>1</v>
       </c>
       <c r="P708" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -37768,7 +37762,7 @@
         <v>1</v>
       </c>
       <c r="P709" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -38318,7 +38312,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -38368,7 +38362,7 @@
         <v>1</v>
       </c>
       <c r="P721" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -38418,7 +38412,7 @@
         <v>1</v>
       </c>
       <c r="P722" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -38468,7 +38462,7 @@
         <v>1</v>
       </c>
       <c r="P723" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38518,7 +38512,7 @@
         <v>1</v>
       </c>
       <c r="P724" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -38568,7 +38562,7 @@
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -38618,7 +38612,7 @@
         <v>1</v>
       </c>
       <c r="P726" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -38668,7 +38662,7 @@
         <v>1</v>
       </c>
       <c r="P727" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -38718,7 +38712,7 @@
         <v>1</v>
       </c>
       <c r="P728" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -38768,7 +38762,7 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38818,7 +38812,7 @@
         <v>1</v>
       </c>
       <c r="P730" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38868,7 +38862,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -38918,7 +38912,7 @@
         <v>1</v>
       </c>
       <c r="P732" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -38968,7 +38962,7 @@
         <v>1</v>
       </c>
       <c r="P733" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -39018,7 +39012,7 @@
         <v>1</v>
       </c>
       <c r="P734" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -39068,7 +39062,7 @@
         <v>1</v>
       </c>
       <c r="P735" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -39118,7 +39112,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -39168,7 +39162,7 @@
         <v>1</v>
       </c>
       <c r="P737" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -39218,7 +39212,7 @@
         <v>1</v>
       </c>
       <c r="P738" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -39268,7 +39262,7 @@
         <v>1</v>
       </c>
       <c r="P739" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -39318,7 +39312,7 @@
         <v>1</v>
       </c>
       <c r="P740" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -39818,7 +39812,7 @@
         <v>1</v>
       </c>
       <c r="P750" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39868,7 +39862,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39918,7 +39912,7 @@
         <v>1</v>
       </c>
       <c r="P752" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -39968,7 +39962,7 @@
         <v>1</v>
       </c>
       <c r="P753" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -40018,7 +40012,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -40068,7 +40062,7 @@
         <v>1</v>
       </c>
       <c r="P755" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -40118,7 +40112,7 @@
         <v>1</v>
       </c>
       <c r="P756" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -40168,7 +40162,7 @@
         <v>1</v>
       </c>
       <c r="P757" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -40218,7 +40212,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -40268,7 +40262,7 @@
         <v>1</v>
       </c>
       <c r="P759" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -40318,7 +40312,7 @@
         <v>1</v>
       </c>
       <c r="P760" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -40368,7 +40362,7 @@
         <v>1</v>
       </c>
       <c r="P761" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -40418,7 +40412,7 @@
         <v>1</v>
       </c>
       <c r="P762" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -40468,7 +40462,7 @@
         <v>1</v>
       </c>
       <c r="P763" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -40518,7 +40512,7 @@
         <v>1</v>
       </c>
       <c r="P764" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -40568,7 +40562,7 @@
         <v>1</v>
       </c>
       <c r="P765" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="766" spans="1:16">
@@ -40618,7 +40612,7 @@
         <v>1</v>
       </c>
       <c r="P766" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -40668,7 +40662,7 @@
         <v>1</v>
       </c>
       <c r="P767" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40718,7 +40712,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40768,7 +40762,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40818,7 +40812,7 @@
         <v>1</v>
       </c>
       <c r="P770" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -40868,7 +40862,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -40918,7 +40912,7 @@
         <v>1</v>
       </c>
       <c r="P772" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -40968,7 +40962,7 @@
         <v>1</v>
       </c>
       <c r="P773" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -41018,7 +41012,7 @@
         <v>1</v>
       </c>
       <c r="P774" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -41068,7 +41062,7 @@
         <v>1</v>
       </c>
       <c r="P775" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="776" spans="1:16">
@@ -41118,7 +41112,7 @@
         <v>1</v>
       </c>
       <c r="P776" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -41168,7 +41162,7 @@
         <v>1</v>
       </c>
       <c r="P777" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -41218,7 +41212,7 @@
         <v>1</v>
       </c>
       <c r="P778" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -41268,7 +41262,7 @@
         <v>1</v>
       </c>
       <c r="P779" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -41318,7 +41312,7 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -41368,7 +41362,7 @@
         <v>1</v>
       </c>
       <c r="P781" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -41818,7 +41812,7 @@
         <v>1</v>
       </c>
       <c r="P790" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="791" spans="1:16">
@@ -41868,7 +41862,7 @@
         <v>1</v>
       </c>
       <c r="P791" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="792" spans="1:16">
@@ -41918,7 +41912,7 @@
         <v>1</v>
       </c>
       <c r="P792" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -41968,7 +41962,7 @@
         <v>1</v>
       </c>
       <c r="P793" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -42018,7 +42012,7 @@
         <v>1</v>
       </c>
       <c r="P794" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -42068,7 +42062,7 @@
         <v>1</v>
       </c>
       <c r="P795" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="796" spans="1:16">
@@ -42118,7 +42112,7 @@
         <v>1</v>
       </c>
       <c r="P796" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -42168,7 +42162,7 @@
         <v>1</v>
       </c>
       <c r="P797" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="798" spans="1:16">
@@ -42768,7 +42762,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42818,7 +42812,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42868,7 +42862,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -42918,7 +42912,7 @@
         <v>1</v>
       </c>
       <c r="P812" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -42968,7 +42962,7 @@
         <v>1</v>
       </c>
       <c r="P813" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -43018,7 +43012,7 @@
         <v>1</v>
       </c>
       <c r="P814" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="815" spans="1:16">
@@ -43068,7 +43062,7 @@
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -43118,7 +43112,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -43168,7 +43162,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -43568,7 +43562,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -43618,7 +43612,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -43668,7 +43662,7 @@
         <v>1</v>
       </c>
       <c r="P827" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="828" spans="1:16">
@@ -43718,7 +43712,7 @@
         <v>1</v>
       </c>
       <c r="P828" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -43768,7 +43762,7 @@
         <v>1</v>
       </c>
       <c r="P829" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -43818,7 +43812,7 @@
         <v>1</v>
       </c>
       <c r="P830" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -43868,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -43918,7 +43912,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -43968,7 +43962,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -44018,7 +44012,7 @@
         <v>1</v>
       </c>
       <c r="P834" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -44068,7 +44062,7 @@
         <v>1</v>
       </c>
       <c r="P835" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -44118,7 +44112,7 @@
         <v>1</v>
       </c>
       <c r="P836" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -44168,7 +44162,7 @@
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -44218,7 +44212,7 @@
         <v>1</v>
       </c>
       <c r="P838" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="839" spans="1:16">
@@ -44268,7 +44262,7 @@
         <v>1</v>
       </c>
       <c r="P839" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="840" spans="1:16">
@@ -44318,7 +44312,7 @@
         <v>1</v>
       </c>
       <c r="P840" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -44368,7 +44362,7 @@
         <v>1</v>
       </c>
       <c r="P841" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="842" spans="1:16">
@@ -44418,7 +44412,7 @@
         <v>1</v>
       </c>
       <c r="P842" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="843" spans="1:16">
@@ -44468,7 +44462,7 @@
         <v>1</v>
       </c>
       <c r="P843" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="844" spans="1:16">
@@ -44768,7 +44762,7 @@
         <v>1</v>
       </c>
       <c r="P849" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="850" spans="1:16">
@@ -44818,7 +44812,7 @@
         <v>1</v>
       </c>
       <c r="P850" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="851" spans="1:16">
@@ -44868,7 +44862,7 @@
         <v>1</v>
       </c>
       <c r="P851" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="852" spans="1:16">
@@ -44918,7 +44912,7 @@
         <v>1</v>
       </c>
       <c r="P852" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -44968,7 +44962,7 @@
         <v>1</v>
       </c>
       <c r="P853" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -45018,7 +45012,7 @@
         <v>1</v>
       </c>
       <c r="P854" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -45068,7 +45062,7 @@
         <v>1</v>
       </c>
       <c r="P855" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -45118,7 +45112,7 @@
         <v>1</v>
       </c>
       <c r="P856" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -45168,7 +45162,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -45218,7 +45212,7 @@
         <v>1</v>
       </c>
       <c r="P858" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -45268,7 +45262,7 @@
         <v>1</v>
       </c>
       <c r="P859" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -45318,7 +45312,7 @@
         <v>1</v>
       </c>
       <c r="P860" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -45668,7 +45662,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -45718,7 +45712,7 @@
         <v>1</v>
       </c>
       <c r="P868" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -45768,7 +45762,7 @@
         <v>1</v>
       </c>
       <c r="P869" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -45818,7 +45812,7 @@
         <v>1</v>
       </c>
       <c r="P870" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="871" spans="1:16">
@@ -45868,7 +45862,7 @@
         <v>1</v>
       </c>
       <c r="P871" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="872" spans="1:16">
@@ -45918,7 +45912,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -45968,7 +45962,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -46018,7 +46012,7 @@
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -46068,7 +46062,7 @@
         <v>1</v>
       </c>
       <c r="P875" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="876" spans="1:16">
@@ -46118,7 +46112,7 @@
         <v>1</v>
       </c>
       <c r="P876" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -46168,7 +46162,7 @@
         <v>1</v>
       </c>
       <c r="P877" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -46218,7 +46212,7 @@
         <v>1</v>
       </c>
       <c r="P878" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -46268,7 +46262,7 @@
         <v>1</v>
       </c>
       <c r="P879" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -46318,7 +46312,7 @@
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -46368,7 +46362,7 @@
         <v>1</v>
       </c>
       <c r="P881" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -47118,7 +47112,7 @@
         <v>1</v>
       </c>
       <c r="P896" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="897" spans="1:16">
@@ -47168,7 +47162,7 @@
         <v>1</v>
       </c>
       <c r="P897" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="898" spans="1:16">
@@ -47218,7 +47212,7 @@
         <v>1</v>
       </c>
       <c r="P898" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="899" spans="1:16">
@@ -47268,7 +47262,7 @@
         <v>1</v>
       </c>
       <c r="P899" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="900" spans="1:16">
@@ -47318,7 +47312,7 @@
         <v>1</v>
       </c>
       <c r="P900" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -47368,7 +47362,7 @@
         <v>1</v>
       </c>
       <c r="P901" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="902" spans="1:16">
@@ -47418,7 +47412,7 @@
         <v>1</v>
       </c>
       <c r="P902" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="903" spans="1:16">
@@ -47468,7 +47462,7 @@
         <v>1</v>
       </c>
       <c r="P903" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="904" spans="1:16">
@@ -47518,7 +47512,7 @@
         <v>1</v>
       </c>
       <c r="P904" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -47568,7 +47562,7 @@
         <v>1</v>
       </c>
       <c r="P905" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="906" spans="1:16">
@@ -47618,7 +47612,7 @@
         <v>1</v>
       </c>
       <c r="P906" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="907" spans="1:16">
@@ -47668,7 +47662,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47718,7 +47712,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47768,7 +47762,7 @@
         <v>1</v>
       </c>
       <c r="P909" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="910" spans="1:16">
@@ -48318,7 +48312,7 @@
         <v>1</v>
       </c>
       <c r="P920" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="921" spans="1:16">
@@ -48368,7 +48362,7 @@
         <v>1</v>
       </c>
       <c r="P921" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="922" spans="1:16">
@@ -48418,7 +48412,7 @@
         <v>1</v>
       </c>
       <c r="P922" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="923" spans="1:16">
@@ -48468,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="P923" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -48518,7 +48512,7 @@
         <v>1</v>
       </c>
       <c r="P924" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="925" spans="1:16">
@@ -48568,7 +48562,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -48618,7 +48612,7 @@
         <v>1</v>
       </c>
       <c r="P926" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -48668,7 +48662,7 @@
         <v>1</v>
       </c>
       <c r="P927" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -48718,7 +48712,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48768,7 +48762,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -48818,7 +48812,7 @@
         <v>1</v>
       </c>
       <c r="P930" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="931" spans="1:16">
@@ -48868,7 +48862,7 @@
         <v>1</v>
       </c>
       <c r="P931" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="932" spans="1:16">
@@ -48918,7 +48912,7 @@
         <v>1</v>
       </c>
       <c r="P932" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="933" spans="1:16">
@@ -48968,7 +48962,7 @@
         <v>1</v>
       </c>
       <c r="P933" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="934" spans="1:16">
@@ -49018,7 +49012,7 @@
         <v>1</v>
       </c>
       <c r="P934" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="935" spans="1:16">
@@ -49068,7 +49062,7 @@
         <v>1</v>
       </c>
       <c r="P935" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="936" spans="1:16">
@@ -49118,7 +49112,7 @@
         <v>1</v>
       </c>
       <c r="P936" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -49168,7 +49162,7 @@
         <v>1</v>
       </c>
       <c r="P937" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="938" spans="1:16">
@@ -49218,7 +49212,7 @@
         <v>1</v>
       </c>
       <c r="P938" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="939" spans="1:16">
@@ -49268,7 +49262,7 @@
         <v>1</v>
       </c>
       <c r="P939" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="940" spans="1:16">
@@ -49318,7 +49312,7 @@
         <v>1</v>
       </c>
       <c r="P940" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -49368,7 +49362,7 @@
         <v>1</v>
       </c>
       <c r="P941" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="942" spans="1:16">
@@ -49418,7 +49412,7 @@
         <v>1</v>
       </c>
       <c r="P942" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="943" spans="1:16">
@@ -49468,7 +49462,7 @@
         <v>1</v>
       </c>
       <c r="P943" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="944" spans="1:16">
@@ -49518,7 +49512,7 @@
         <v>1</v>
       </c>
       <c r="P944" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -49568,7 +49562,7 @@
         <v>1</v>
       </c>
       <c r="P945" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="946" spans="1:16">
@@ -49618,7 +49612,7 @@
         <v>1</v>
       </c>
       <c r="P946" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="947" spans="1:16">
@@ -49668,7 +49662,7 @@
         <v>1</v>
       </c>
       <c r="P947" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="948" spans="1:16">
@@ -49718,7 +49712,7 @@
         <v>1</v>
       </c>
       <c r="P948" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -49768,7 +49762,7 @@
         <v>1</v>
       </c>
       <c r="P949" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -49818,7 +49812,7 @@
         <v>1</v>
       </c>
       <c r="P950" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="951" spans="1:16">
@@ -49868,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="P951" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="952" spans="1:16">
@@ -49918,7 +49912,7 @@
         <v>1</v>
       </c>
       <c r="P952" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="953" spans="1:16">
@@ -49968,7 +49962,7 @@
         <v>1</v>
       </c>
       <c r="P953" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -50018,7 +50012,7 @@
         <v>1</v>
       </c>
       <c r="P954" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -50068,7 +50062,7 @@
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -50118,7 +50112,7 @@
         <v>1</v>
       </c>
       <c r="P956" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -50168,7 +50162,7 @@
         <v>1</v>
       </c>
       <c r="P957" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -50218,7 +50212,7 @@
         <v>1</v>
       </c>
       <c r="P958" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -50268,7 +50262,7 @@
         <v>1</v>
       </c>
       <c r="P959" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="960" spans="1:16">
@@ -50318,7 +50312,7 @@
         <v>1</v>
       </c>
       <c r="P960" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="961" spans="1:16">
@@ -50368,7 +50362,7 @@
         <v>1</v>
       </c>
       <c r="P961" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="962" spans="1:16">
@@ -50418,7 +50412,7 @@
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -50468,7 +50462,7 @@
         <v>1</v>
       </c>
       <c r="P963" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="964" spans="1:16">
@@ -50518,7 +50512,7 @@
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -50568,7 +50562,7 @@
         <v>1</v>
       </c>
       <c r="P965" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -50618,7 +50612,7 @@
         <v>1</v>
       </c>
       <c r="P966" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -50668,7 +50662,7 @@
         <v>1</v>
       </c>
       <c r="P967" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -50718,7 +50712,7 @@
         <v>1</v>
       </c>
       <c r="P968" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="969" spans="1:16">
@@ -50768,7 +50762,7 @@
         <v>1</v>
       </c>
       <c r="P969" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="970" spans="1:16">
@@ -50818,7 +50812,7 @@
         <v>1</v>
       </c>
       <c r="P970" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="971" spans="1:16">
@@ -50868,7 +50862,7 @@
         <v>1</v>
       </c>
       <c r="P971" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="972" spans="1:16">
@@ -50918,7 +50912,7 @@
         <v>1</v>
       </c>
       <c r="P972" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -50968,7 +50962,7 @@
         <v>1</v>
       </c>
       <c r="P973" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="974" spans="1:16">
@@ -51018,7 +51012,7 @@
         <v>1</v>
       </c>
       <c r="P974" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="975" spans="1:16">
@@ -51068,7 +51062,7 @@
         <v>1</v>
       </c>
       <c r="P975" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="976" spans="1:16">
@@ -51118,7 +51112,7 @@
         <v>1</v>
       </c>
       <c r="P976" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="977" spans="1:16">
@@ -51168,7 +51162,7 @@
         <v>1</v>
       </c>
       <c r="P977" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="978" spans="1:16">
@@ -51218,7 +51212,7 @@
         <v>1</v>
       </c>
       <c r="P978" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="979" spans="1:16">
@@ -51268,7 +51262,7 @@
         <v>1</v>
       </c>
       <c r="P979" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="980" spans="1:16">
@@ -51318,7 +51312,7 @@
         <v>1</v>
       </c>
       <c r="P980" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -51368,7 +51362,7 @@
         <v>1</v>
       </c>
       <c r="P981" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="982" spans="1:16">
@@ -51418,7 +51412,7 @@
         <v>1</v>
       </c>
       <c r="P982" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -51468,7 +51462,7 @@
         <v>1</v>
       </c>
       <c r="P983" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -51518,7 +51512,7 @@
         <v>1</v>
       </c>
       <c r="P984" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -51568,7 +51562,7 @@
         <v>1</v>
       </c>
       <c r="P985" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -51618,7 +51612,7 @@
         <v>1</v>
       </c>
       <c r="P986" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -51668,7 +51662,7 @@
         <v>1</v>
       </c>
       <c r="P987" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="988" spans="1:16">
@@ -51718,7 +51712,7 @@
         <v>1</v>
       </c>
       <c r="P988" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="989" spans="1:16">
@@ -51768,7 +51762,7 @@
         <v>1</v>
       </c>
       <c r="P989" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="990" spans="1:16">
@@ -51818,7 +51812,7 @@
         <v>1</v>
       </c>
       <c r="P990" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -51868,7 +51862,7 @@
         <v>1</v>
       </c>
       <c r="P991" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="992" spans="1:16">
@@ -51918,7 +51912,7 @@
         <v>1</v>
       </c>
       <c r="P992" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="993" spans="1:16">
@@ -51968,7 +51962,7 @@
         <v>1</v>
       </c>
       <c r="P993" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="994" spans="1:16">
@@ -52018,7 +52012,7 @@
         <v>1</v>
       </c>
       <c r="P994" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="995" spans="1:16">
@@ -52068,7 +52062,7 @@
         <v>1</v>
       </c>
       <c r="P995" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="996" spans="1:16">
@@ -52118,7 +52112,7 @@
         <v>1</v>
       </c>
       <c r="P996" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="997" spans="1:16">
@@ -52168,7 +52162,7 @@
         <v>1</v>
       </c>
       <c r="P997" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="998" spans="1:16">
@@ -52218,7 +52212,7 @@
         <v>1</v>
       </c>
       <c r="P998" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -52268,7 +52262,7 @@
         <v>1</v>
       </c>
       <c r="P999" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
@@ -52318,7 +52312,7 @@
         <v>1</v>
       </c>
       <c r="P1000" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
@@ -52368,7 +52362,7 @@
         <v>1</v>
       </c>
       <c r="P1001" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
@@ -52418,7 +52412,7 @@
         <v>1</v>
       </c>
       <c r="P1002" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1003" spans="1:16">
@@ -52468,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="P1003" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1004" spans="1:16">
@@ -52518,7 +52512,7 @@
         <v>1</v>
       </c>
       <c r="P1004" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1005" spans="1:16">
@@ -52568,7 +52562,7 @@
         <v>1</v>
       </c>
       <c r="P1005" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1006" spans="1:16">
@@ -52618,7 +52612,7 @@
         <v>1</v>
       </c>
       <c r="P1006" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1007" spans="1:16">
@@ -52668,7 +52662,7 @@
         <v>1</v>
       </c>
       <c r="P1007" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1008" spans="1:16">
@@ -52718,7 +52712,7 @@
         <v>1</v>
       </c>
       <c r="P1008" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1009" spans="1:16">
@@ -52768,7 +52762,7 @@
         <v>1</v>
       </c>
       <c r="P1009" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1010" spans="1:16">
@@ -52818,7 +52812,7 @@
         <v>1</v>
       </c>
       <c r="P1010" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1011" spans="1:16">
@@ -52868,7 +52862,7 @@
         <v>1</v>
       </c>
       <c r="P1011" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1012" spans="1:16">
@@ -52918,7 +52912,7 @@
         <v>1</v>
       </c>
       <c r="P1012" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1013" spans="1:16">
@@ -52968,7 +52962,7 @@
         <v>1</v>
       </c>
       <c r="P1013" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1014" spans="1:16">
@@ -53018,7 +53012,7 @@
         <v>1</v>
       </c>
       <c r="P1014" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1015" spans="1:16">
@@ -53068,7 +53062,7 @@
         <v>1</v>
       </c>
       <c r="P1015" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1016" spans="1:16">
@@ -53118,7 +53112,7 @@
         <v>1</v>
       </c>
       <c r="P1016" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1017" spans="1:16">
@@ -53168,7 +53162,7 @@
         <v>1</v>
       </c>
       <c r="P1017" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1018" spans="1:16">
@@ -53218,7 +53212,7 @@
         <v>1</v>
       </c>
       <c r="P1018" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1019" spans="1:16">
@@ -53268,7 +53262,7 @@
         <v>1</v>
       </c>
       <c r="P1019" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
@@ -53318,7 +53312,7 @@
         <v>1</v>
       </c>
       <c r="P1020" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1021" spans="1:16">
@@ -53368,7 +53362,7 @@
         <v>1</v>
       </c>
       <c r="P1021" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
@@ -53418,7 +53412,7 @@
         <v>1</v>
       </c>
       <c r="P1022" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
@@ -53468,7 +53462,7 @@
         <v>1</v>
       </c>
       <c r="P1023" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1024" spans="1:16">
@@ -53518,7 +53512,7 @@
         <v>1</v>
       </c>
       <c r="P1024" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1025" spans="1:16">
@@ -53568,7 +53562,7 @@
         <v>1</v>
       </c>
       <c r="P1025" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1026" spans="1:16">
@@ -53618,7 +53612,7 @@
         <v>1</v>
       </c>
       <c r="P1026" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1027" spans="1:16">
@@ -53668,7 +53662,7 @@
         <v>1</v>
       </c>
       <c r="P1027" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1028" spans="1:16">
@@ -53718,7 +53712,7 @@
         <v>1</v>
       </c>
       <c r="P1028" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
@@ -53768,7 +53762,7 @@
         <v>1</v>
       </c>
       <c r="P1029" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1030" spans="1:16">
@@ -53818,7 +53812,7 @@
         <v>1</v>
       </c>
       <c r="P1030" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1031" spans="1:16">
@@ -53868,7 +53862,7 @@
         <v>1</v>
       </c>
       <c r="P1031" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1032" spans="1:16">
@@ -53918,7 +53912,7 @@
         <v>1</v>
       </c>
       <c r="P1032" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
@@ -53968,7 +53962,7 @@
         <v>1</v>
       </c>
       <c r="P1033" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1034" spans="1:16">
@@ -54018,7 +54012,7 @@
         <v>1</v>
       </c>
       <c r="P1034" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1035" spans="1:16">
@@ -54068,7 +54062,7 @@
         <v>1</v>
       </c>
       <c r="P1035" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1036" spans="1:16">
@@ -54118,7 +54112,7 @@
         <v>1</v>
       </c>
       <c r="P1036" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
@@ -54168,7 +54162,7 @@
         <v>1</v>
       </c>
       <c r="P1037" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1038" spans="1:16">
@@ -54218,7 +54212,7 @@
         <v>1</v>
       </c>
       <c r="P1038" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
@@ -54268,7 +54262,7 @@
         <v>1</v>
       </c>
       <c r="P1039" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1040" spans="1:16">
@@ -55468,7 +55462,7 @@
         <v>1</v>
       </c>
       <c r="P1063" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1064" spans="1:16">
@@ -55518,7 +55512,7 @@
         <v>1</v>
       </c>
       <c r="P1064" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1065" spans="1:16">
@@ -55568,7 +55562,7 @@
         <v>1</v>
       </c>
       <c r="P1065" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1066" spans="1:16">
@@ -55618,7 +55612,7 @@
         <v>1</v>
       </c>
       <c r="P1066" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1067" spans="1:16">
@@ -56318,7 +56312,7 @@
         <v>1</v>
       </c>
       <c r="P1080" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1081" spans="1:16">
@@ -56368,7 +56362,7 @@
         <v>1</v>
       </c>
       <c r="P1081" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1082" spans="1:16">
@@ -56418,7 +56412,7 @@
         <v>1</v>
       </c>
       <c r="P1082" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1083" spans="1:16">
@@ -56468,7 +56462,7 @@
         <v>1</v>
       </c>
       <c r="P1083" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1084" spans="1:16">
@@ -56518,7 +56512,7 @@
         <v>1</v>
       </c>
       <c r="P1084" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1085" spans="1:16">
@@ -56568,7 +56562,7 @@
         <v>1</v>
       </c>
       <c r="P1085" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1086" spans="1:16">
@@ -56618,7 +56612,7 @@
         <v>1</v>
       </c>
       <c r="P1086" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1087" spans="1:16">
@@ -56668,7 +56662,7 @@
         <v>1</v>
       </c>
       <c r="P1087" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1088" spans="1:16">
@@ -56718,7 +56712,7 @@
         <v>1</v>
       </c>
       <c r="P1088" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1089" spans="1:16">
@@ -57168,7 +57162,7 @@
         <v>1</v>
       </c>
       <c r="P1097" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1098" spans="1:16">
@@ -57218,7 +57212,7 @@
         <v>1</v>
       </c>
       <c r="P1098" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1099" spans="1:16">
@@ -57268,7 +57262,7 @@
         <v>1</v>
       </c>
       <c r="P1099" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1100" spans="1:16">
@@ -57318,7 +57312,7 @@
         <v>1</v>
       </c>
       <c r="P1100" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1101" spans="1:16">
@@ -57368,7 +57362,7 @@
         <v>1</v>
       </c>
       <c r="P1101" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1102" spans="1:16">
@@ -57418,7 +57412,7 @@
         <v>1</v>
       </c>
       <c r="P1102" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1103" spans="1:16">
@@ -57468,7 +57462,7 @@
         <v>1</v>
       </c>
       <c r="P1103" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1104" spans="1:16">
@@ -57518,7 +57512,7 @@
         <v>1</v>
       </c>
       <c r="P1104" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1105" spans="1:16">
@@ -57568,7 +57562,7 @@
         <v>1</v>
       </c>
       <c r="P1105" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1106" spans="1:16">
@@ -57618,7 +57612,7 @@
         <v>1</v>
       </c>
       <c r="P1106" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1107" spans="1:16">
@@ -58468,7 +58462,7 @@
         <v>1</v>
       </c>
       <c r="P1123" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1124" spans="1:16">
@@ -58518,7 +58512,7 @@
         <v>1</v>
       </c>
       <c r="P1124" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1125" spans="1:16">
@@ -58568,7 +58562,7 @@
         <v>1</v>
       </c>
       <c r="P1125" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1126" spans="1:16">
@@ -58618,7 +58612,7 @@
         <v>1</v>
       </c>
       <c r="P1126" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1127" spans="1:16">
@@ -58668,7 +58662,7 @@
         <v>1</v>
       </c>
       <c r="P1127" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1128" spans="1:16">
@@ -58685,7 +58679,7 @@
         <v>495</v>
       </c>
       <c r="E1128">
-        <v>3.961978494903271</v>
+        <v>3.995328947368426</v>
       </c>
       <c r="F1128">
         <v>1</v>
@@ -58694,10 +58688,10 @@
         <v>0.01080456833784065</v>
       </c>
       <c r="H1128">
-        <v>0.01067802150509673</v>
+        <v>0.01072467105263157</v>
       </c>
       <c r="I1128">
-        <v>-0.03345316725608471</v>
+        <v>-0.0001027147909296033</v>
       </c>
       <c r="J1128">
         <v>0.6649547534845009</v>
@@ -58709,16 +58703,16 @@
         <v>7.4</v>
       </c>
       <c r="M1128">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1128">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1128">
         <v>1</v>
       </c>
       <c r="P1128" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1129" spans="1:16">
@@ -58735,7 +58729,7 @@
         <v>495</v>
       </c>
       <c r="E1129">
-        <v>3.961978494903271</v>
+        <v>3.995328947368426</v>
       </c>
       <c r="F1129">
         <v>1</v>
@@ -58744,10 +58738,10 @@
         <v>0.0108179187903058</v>
       </c>
       <c r="H1129">
-        <v>0.01067802150509673</v>
+        <v>0.01072467105263157</v>
       </c>
       <c r="I1129">
-        <v>-0.06010271479092921</v>
+        <v>-0.0267522623257741</v>
       </c>
       <c r="J1129">
         <v>0.6649547534845009</v>
@@ -58759,16 +58753,16 @@
         <v>7.42</v>
       </c>
       <c r="M1129">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1129">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1129">
         <v>1</v>
       </c>
       <c r="P1129" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1130" spans="1:16">
@@ -58785,7 +58779,7 @@
         <v>495</v>
       </c>
       <c r="E1130">
-        <v>3.961978494903271</v>
+        <v>3.995328947368426</v>
       </c>
       <c r="F1130">
         <v>1</v>
@@ -58794,10 +58788,10 @@
         <v>0.01090781607551487</v>
       </c>
       <c r="H1130">
-        <v>0.01067802150509673</v>
+        <v>0.01072467105263157</v>
       </c>
       <c r="I1130">
-        <v>-0.07020542958185949</v>
+        <v>-0.03685497711670438</v>
       </c>
       <c r="J1130">
         <v>0.6649547534845009</v>
@@ -58809,16 +58803,16 @@
         <v>7.47</v>
       </c>
       <c r="M1130">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1130">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1130">
         <v>1</v>
       </c>
       <c r="P1130" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1131" spans="1:16">
@@ -58835,7 +58829,7 @@
         <v>495</v>
       </c>
       <c r="E1131">
-        <v>2.302421017063697</v>
+        <v>2.332485217097487</v>
       </c>
       <c r="F1131">
         <v>1</v>
@@ -58844,10 +58838,10 @@
         <v>0.01248712958269978</v>
       </c>
       <c r="H1131">
-        <v>0.0123375789829363</v>
+        <v>0.01238751478290251</v>
       </c>
       <c r="I1131">
-        <v>-0.01044940023652696</v>
+        <v>0.01961479979726288</v>
       </c>
       <c r="J1131">
         <v>0.9935799966210501</v>
@@ -58859,16 +58853,16 @@
         <v>7.4</v>
       </c>
       <c r="M1131">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1131">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1131">
         <v>1</v>
       </c>
       <c r="P1131" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1132" spans="1:16">
@@ -58885,7 +58879,7 @@
         <v>495</v>
       </c>
       <c r="E1132">
-        <v>2.302421017063697</v>
+        <v>2.332485217097487</v>
       </c>
       <c r="F1132">
         <v>1</v>
@@ -58894,10 +58888,10 @@
         <v>0.01249719378273357</v>
       </c>
       <c r="H1132">
-        <v>0.0123375789829363</v>
+        <v>0.01238751478290251</v>
       </c>
       <c r="I1132">
-        <v>-0.04038520020273673</v>
+        <v>-0.01032100016894688</v>
       </c>
       <c r="J1132">
         <v>0.9935799966210501</v>
@@ -58909,16 +58903,16 @@
         <v>7.42</v>
       </c>
       <c r="M1132">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1132">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1132">
         <v>1</v>
       </c>
       <c r="P1132" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1133" spans="1:16">
@@ -58926,104 +58920,104 @@
         <v>2</v>
       </c>
       <c r="B1133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1133">
-        <v>2.333191417469171</v>
+        <v>2.352742017232645</v>
       </c>
       <c r="D1133" t="s">
         <v>495</v>
       </c>
       <c r="E1133">
-        <v>2.302421017063697</v>
+        <v>2.332485217097487</v>
       </c>
       <c r="F1133">
         <v>1</v>
       </c>
       <c r="G1133">
-        <v>0.01260680858253083</v>
+        <v>0.01248725798276736</v>
       </c>
       <c r="H1133">
-        <v>0.0123375789829363</v>
+        <v>0.01238751478290251</v>
       </c>
       <c r="I1133">
-        <v>-0.03077040040547363</v>
+        <v>-0.02025680013515796</v>
       </c>
       <c r="J1133">
         <v>0.9935799966210501</v>
       </c>
       <c r="K1133">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="L1133">
-        <v>7.47</v>
+        <v>7.42</v>
       </c>
       <c r="M1133">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1133">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1133">
         <v>1</v>
       </c>
       <c r="P1133" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1134" spans="1:16">
       <c r="A1134" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1134" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C1134">
-        <v>3.738500159583613</v>
+        <v>2.333191417469171</v>
       </c>
       <c r="D1134" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E1134">
-        <v>3.540311433551844</v>
+        <v>2.332485217097487</v>
       </c>
       <c r="F1134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1134">
-        <v>0.01170149984041639</v>
+        <v>0.01260680858253083</v>
       </c>
       <c r="H1134">
-        <v>0.01195968856644816</v>
+        <v>0.01238751478290251</v>
       </c>
       <c r="I1134">
-        <v>0.1981887260317685</v>
+        <v>-0.000706200371683785</v>
       </c>
       <c r="J1134">
-        <v>0.786857675971618</v>
+        <v>0.9935799966210501</v>
       </c>
       <c r="K1134">
+        <v>5.17</v>
+      </c>
+      <c r="L1134">
+        <v>7.47</v>
+      </c>
+      <c r="M1134">
         <v>5.06</v>
       </c>
-      <c r="L1134">
-        <v>7.72</v>
-      </c>
-      <c r="M1134">
-        <v>5.35</v>
-      </c>
       <c r="N1134">
-        <v>7.75</v>
+        <v>7.36</v>
       </c>
       <c r="O1134">
         <v>1</v>
       </c>
       <c r="P1134" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1135" spans="1:16">
       <c r="A1135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1135" t="s">
         <v>305</v>
@@ -59032,7 +59026,7 @@
         <v>3.735551545505884</v>
       </c>
       <c r="D1135" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E1135">
         <v>3.537025852544748</v>
@@ -59068,21 +59062,21 @@
         <v>1</v>
       </c>
       <c r="P1135" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1136" spans="1:16">
       <c r="A1136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1136" t="s">
         <v>306</v>
       </c>
       <c r="C1136">
-        <v>3.77276300606418</v>
+        <v>3.727025852544749</v>
       </c>
       <c r="D1136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E1136">
         <v>3.537025852544748</v>
@@ -59091,22 +59085,22 @@
         <v>-1</v>
       </c>
       <c r="G1136">
-        <v>0.01176723699393582</v>
+        <v>0.01175297414745525</v>
       </c>
       <c r="H1136">
         <v>0.01156297414745525</v>
       </c>
       <c r="I1136">
-        <v>0.2357371535194313</v>
+        <v>0.1900000000000004</v>
       </c>
       <c r="J1136">
         <v>0.786857675971618</v>
       </c>
       <c r="K1136">
-        <v>5.08</v>
+        <v>5.1</v>
       </c>
       <c r="L1136">
-        <v>7.77</v>
+        <v>7.74</v>
       </c>
       <c r="M1136">
         <v>5.1</v>
@@ -59118,12 +59112,12 @@
         <v>1</v>
       </c>
       <c r="P1136" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1137" spans="1:16">
       <c r="A1137" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1137" t="s">
         <v>301</v>
@@ -59135,7 +59129,7 @@
         <v>495</v>
       </c>
       <c r="E1137">
-        <v>3.346368736343329</v>
+        <v>3.378500159583613</v>
       </c>
       <c r="F1137">
         <v>1</v>
@@ -59144,10 +59138,10 @@
         <v>0.01142871130097469</v>
       </c>
       <c r="H1137">
-        <v>0.01129363126365667</v>
+        <v>0.01134149984041639</v>
       </c>
       <c r="I1137">
-        <v>-0.02491996268198626</v>
+        <v>0.007211460558297578</v>
       </c>
       <c r="J1137">
         <v>0.786857675971618</v>
@@ -59159,21 +59153,21 @@
         <v>7.4</v>
       </c>
       <c r="M1137">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1137">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1137">
         <v>1</v>
       </c>
       <c r="P1137" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1138" spans="1:16">
       <c r="A1138" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1138" t="s">
         <v>302</v>
@@ -59185,7 +59179,7 @@
         <v>495</v>
       </c>
       <c r="E1138">
-        <v>3.346368736343329</v>
+        <v>3.378500159583613</v>
       </c>
       <c r="F1138">
         <v>1</v>
@@ -59194,10 +59188,10 @@
         <v>0.01144084272421497</v>
       </c>
       <c r="H1138">
-        <v>0.01129363126365667</v>
+        <v>0.01134149984041639</v>
       </c>
       <c r="I1138">
-        <v>-0.05278853944170248</v>
+        <v>-0.02065711620141863</v>
       </c>
       <c r="J1138">
         <v>0.786857675971618</v>
@@ -59209,116 +59203,116 @@
         <v>7.42</v>
       </c>
       <c r="M1138">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1138">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1138">
         <v>1</v>
       </c>
       <c r="P1138" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1139" spans="1:16">
       <c r="A1139" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1139">
-        <v>3.401945815226735</v>
+        <v>3.407025852544749</v>
       </c>
       <c r="D1139" t="s">
         <v>495</v>
       </c>
       <c r="E1139">
-        <v>3.346368736343329</v>
+        <v>3.378500159583613</v>
       </c>
       <c r="F1139">
         <v>1</v>
       </c>
       <c r="G1139">
-        <v>0.01153805418477327</v>
+        <v>0.01143297414745525</v>
       </c>
       <c r="H1139">
-        <v>0.01129363126365667</v>
+        <v>0.01134149984041639</v>
       </c>
       <c r="I1139">
-        <v>-0.05557707888340513</v>
+        <v>-0.02852569296113527</v>
       </c>
       <c r="J1139">
         <v>0.786857675971618</v>
       </c>
       <c r="K1139">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="L1139">
-        <v>7.47</v>
+        <v>7.42</v>
       </c>
       <c r="M1139">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1139">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1139">
         <v>1</v>
       </c>
       <c r="P1139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1140" spans="1:16">
       <c r="A1140" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1140" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C1140">
-        <v>6.924167045971773</v>
+        <v>3.401945815226735</v>
       </c>
       <c r="D1140" t="s">
         <v>495</v>
       </c>
       <c r="E1140">
-        <v>6.888439918070089</v>
+        <v>3.378500159583613</v>
       </c>
       <c r="F1140">
         <v>1</v>
       </c>
       <c r="G1140">
-        <v>0.007795832954028228</v>
+        <v>0.01153805418477327</v>
       </c>
       <c r="H1140">
-        <v>0.007751560081929912</v>
+        <v>0.01134149984041639</v>
       </c>
       <c r="I1140">
-        <v>-0.03572712790168353</v>
+        <v>-0.02344565564312129</v>
       </c>
       <c r="J1140">
-        <v>0.08545744196631905</v>
+        <v>0.786857675971618</v>
       </c>
       <c r="K1140">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="L1140">
+        <v>7.47</v>
+      </c>
+      <c r="M1140">
+        <v>5.06</v>
+      </c>
+      <c r="N1140">
         <v>7.36</v>
       </c>
-      <c r="M1140">
-        <v>5.05</v>
-      </c>
-      <c r="N1140">
-        <v>7.32</v>
-      </c>
       <c r="O1140">
         <v>1</v>
       </c>
       <c r="P1140" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1141" spans="1:16">
@@ -59329,28 +59323,28 @@
         <v>307</v>
       </c>
       <c r="C1141">
-        <v>6.844382189584246</v>
+        <v>6.924167045971773</v>
       </c>
       <c r="D1141" t="s">
         <v>495</v>
       </c>
       <c r="E1141">
-        <v>6.80943726615695</v>
+        <v>6.927585343650426</v>
       </c>
       <c r="F1141">
         <v>1</v>
       </c>
       <c r="G1141">
-        <v>0.007875617810415755</v>
+        <v>0.007795832954028228</v>
       </c>
       <c r="H1141">
-        <v>0.007830562733843052</v>
+        <v>0.007792414656349575</v>
       </c>
       <c r="I1141">
-        <v>-0.03494492342729671</v>
+        <v>0.003418297678653204</v>
       </c>
       <c r="J1141">
-        <v>0.1011015314540694</v>
+        <v>0.08545744196631905</v>
       </c>
       <c r="K1141">
         <v>5.1</v>
@@ -59359,16 +59353,16 @@
         <v>7.36</v>
       </c>
       <c r="M1141">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1141">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1141">
         <v>1</v>
       </c>
       <c r="P1141" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1142" spans="1:16">
@@ -59379,28 +59373,28 @@
         <v>307</v>
       </c>
       <c r="C1142">
-        <v>6.789775674843201</v>
+        <v>6.844382189584246</v>
       </c>
       <c r="D1142" t="s">
         <v>495</v>
       </c>
       <c r="E1142">
-        <v>6.755366109403562</v>
+        <v>6.848426250842409</v>
       </c>
       <c r="F1142">
         <v>1</v>
       </c>
       <c r="G1142">
-        <v>0.007930224325156799</v>
+        <v>0.007875617810415755</v>
       </c>
       <c r="H1142">
-        <v>0.007884633890596439</v>
+        <v>0.007871573749157592</v>
       </c>
       <c r="I1142">
-        <v>-0.03440956543963924</v>
+        <v>0.004044061258162479</v>
       </c>
       <c r="J1142">
-        <v>0.1118086912072155</v>
+        <v>0.1011015314540694</v>
       </c>
       <c r="K1142">
         <v>5.1</v>
@@ -59409,16 +59403,16 @@
         <v>7.36</v>
       </c>
       <c r="M1142">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1142">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1142">
         <v>1</v>
       </c>
       <c r="P1142" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1143" spans="1:16">
@@ -59429,28 +59423,28 @@
         <v>307</v>
       </c>
       <c r="C1143">
-        <v>6.81731540202045</v>
+        <v>6.789775674843201</v>
       </c>
       <c r="D1143" t="s">
         <v>495</v>
       </c>
       <c r="E1143">
-        <v>6.782635839255544</v>
+        <v>6.79424802249149</v>
       </c>
       <c r="F1143">
         <v>1</v>
       </c>
       <c r="G1143">
-        <v>0.007902684597979551</v>
+        <v>0.007930224325156799</v>
       </c>
       <c r="H1143">
-        <v>0.007857364160744456</v>
+        <v>0.00792575197750851</v>
       </c>
       <c r="I1143">
-        <v>-0.03467956276490547</v>
+        <v>0.004472347648288633</v>
       </c>
       <c r="J1143">
-        <v>0.1064087447018726</v>
+        <v>0.1118086912072155</v>
       </c>
       <c r="K1143">
         <v>5.1</v>
@@ -59459,16 +59453,16 @@
         <v>7.36</v>
       </c>
       <c r="M1143">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1143">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1143">
         <v>1</v>
       </c>
       <c r="P1143" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1144" spans="1:16">
@@ -59479,28 +59473,28 @@
         <v>307</v>
       </c>
       <c r="C1144">
-        <v>6.86668630067644</v>
+        <v>6.81731540202045</v>
       </c>
       <c r="D1144" t="s">
         <v>495</v>
       </c>
       <c r="E1144">
-        <v>6.831522709493337</v>
+        <v>6.821571751808525</v>
       </c>
       <c r="F1144">
         <v>1</v>
       </c>
       <c r="G1144">
-        <v>0.007853313699323562</v>
+        <v>0.007902684597979551</v>
       </c>
       <c r="H1144">
-        <v>0.007808477290506664</v>
+        <v>0.007898428248191475</v>
       </c>
       <c r="I1144">
-        <v>-0.03516359118310319</v>
+        <v>0.004256349788075653</v>
       </c>
       <c r="J1144">
-        <v>0.09672817633795312</v>
+        <v>0.1064087447018726</v>
       </c>
       <c r="K1144">
         <v>5.1</v>
@@ -59509,16 +59503,16 @@
         <v>7.36</v>
       </c>
       <c r="M1144">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1144">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1144">
         <v>1</v>
       </c>
       <c r="P1144" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1145" spans="1:16">
@@ -59529,28 +59523,28 @@
         <v>308</v>
       </c>
       <c r="C1145">
-        <v>5.825747172057932</v>
+        <v>6.816686300676439</v>
       </c>
       <c r="D1145" t="s">
         <v>495</v>
       </c>
       <c r="E1145">
-        <v>5.85029867037109</v>
+        <v>6.870555427729958</v>
       </c>
       <c r="F1145">
         <v>1</v>
       </c>
       <c r="G1145">
-        <v>0.008794252827942068</v>
+        <v>0.00780331369932356</v>
       </c>
       <c r="H1145">
-        <v>0.00878970132962891</v>
+        <v>0.007849444572270043</v>
       </c>
       <c r="I1145">
-        <v>0.02455149831315762</v>
+        <v>0.05386912705351854</v>
       </c>
       <c r="J1145">
-        <v>0.2910299662631506</v>
+        <v>0.09672817633795312</v>
       </c>
       <c r="K1145">
         <v>5.1</v>
@@ -59559,16 +59553,16 @@
         <v>7.31</v>
       </c>
       <c r="M1145">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1145">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1145">
         <v>1</v>
       </c>
       <c r="P1145" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1146" spans="1:16">
@@ -59579,28 +59573,28 @@
         <v>309</v>
       </c>
       <c r="C1146">
-        <v>5.826119269696353</v>
+        <v>6.803457273020096</v>
       </c>
       <c r="D1146" t="s">
         <v>495</v>
       </c>
       <c r="E1146">
-        <v>5.85029867037109</v>
+        <v>6.870555427729958</v>
       </c>
       <c r="F1146">
         <v>1</v>
       </c>
       <c r="G1146">
-        <v>0.008753880730303648</v>
+        <v>0.007776542726979904</v>
       </c>
       <c r="H1146">
-        <v>0.00878970132962891</v>
+        <v>0.007849444572270043</v>
       </c>
       <c r="I1146">
-        <v>0.02417940067473712</v>
+        <v>0.06709815470986147</v>
       </c>
       <c r="J1146">
-        <v>0.2910299662631506</v>
+        <v>0.09672817633795312</v>
       </c>
       <c r="K1146">
         <v>5.03</v>
@@ -59609,16 +59603,16 @@
         <v>7.29</v>
       </c>
       <c r="M1146">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1146">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1146">
         <v>1</v>
       </c>
       <c r="P1146" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1147" spans="1:16">
@@ -59629,28 +59623,28 @@
         <v>308</v>
       </c>
       <c r="C1147">
-        <v>5.850546967895346</v>
+        <v>5.825747172057932</v>
       </c>
       <c r="D1147" t="s">
         <v>495</v>
       </c>
       <c r="E1147">
-        <v>5.874855330955196</v>
+        <v>5.887388370708458</v>
       </c>
       <c r="F1147">
         <v>1</v>
       </c>
       <c r="G1147">
-        <v>0.008769453032104654</v>
+        <v>0.008794252827942068</v>
       </c>
       <c r="H1147">
-        <v>0.008765144669044805</v>
+        <v>0.008832611629291541</v>
       </c>
       <c r="I1147">
-        <v>0.02430836305985018</v>
+        <v>0.06164119865052609</v>
       </c>
       <c r="J1147">
-        <v>0.2861672611969911</v>
+        <v>0.2910299662631506</v>
       </c>
       <c r="K1147">
         <v>5.1</v>
@@ -59659,16 +59653,16 @@
         <v>7.31</v>
       </c>
       <c r="M1147">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1147">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1147">
         <v>1</v>
       </c>
       <c r="P1147" t="s">
-        <v>497</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1148" spans="1:16">
@@ -59679,28 +59673,28 @@
         <v>309</v>
       </c>
       <c r="C1148">
-        <v>5.850578676179135</v>
+        <v>5.826119269696353</v>
       </c>
       <c r="D1148" t="s">
         <v>495</v>
       </c>
       <c r="E1148">
-        <v>5.874855330955196</v>
+        <v>5.887388370708458</v>
       </c>
       <c r="F1148">
         <v>1</v>
       </c>
       <c r="G1148">
-        <v>0.008729421323820865</v>
+        <v>0.008753880730303648</v>
       </c>
       <c r="H1148">
-        <v>0.008765144669044805</v>
+        <v>0.008832611629291541</v>
       </c>
       <c r="I1148">
-        <v>0.02427665477606133</v>
+        <v>0.06126910101210559</v>
       </c>
       <c r="J1148">
-        <v>0.2861672611969911</v>
+        <v>0.2910299662631506</v>
       </c>
       <c r="K1148">
         <v>5.03</v>
@@ -59709,16 +59703,16 @@
         <v>7.29</v>
       </c>
       <c r="M1148">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1148">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1148">
         <v>1</v>
       </c>
       <c r="P1148" t="s">
-        <v>497</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1149" spans="1:16">
@@ -59729,28 +59723,28 @@
         <v>308</v>
       </c>
       <c r="C1149">
-        <v>5.829497400346602</v>
+        <v>5.850546967895346</v>
       </c>
       <c r="D1149" t="s">
         <v>495</v>
       </c>
       <c r="E1149">
-        <v>5.854012131715754</v>
+        <v>5.911993658343226</v>
       </c>
       <c r="F1149">
         <v>1</v>
       </c>
       <c r="G1149">
-        <v>0.008790502599653397</v>
+        <v>0.008769453032104654</v>
       </c>
       <c r="H1149">
-        <v>0.008785987868284247</v>
+        <v>0.008808006341656774</v>
       </c>
       <c r="I1149">
-        <v>0.02451473136915183</v>
+        <v>0.06144669044788031</v>
       </c>
       <c r="J1149">
-        <v>0.2902946273830191</v>
+        <v>0.2861672611969911</v>
       </c>
       <c r="K1149">
         <v>5.1</v>
@@ -59759,16 +59753,16 @@
         <v>7.31</v>
       </c>
       <c r="M1149">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1149">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1149">
         <v>1</v>
       </c>
       <c r="P1149" t="s">
-        <v>642</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1150" spans="1:16">
@@ -59779,28 +59773,28 @@
         <v>309</v>
       </c>
       <c r="C1150">
-        <v>5.829818024263414</v>
+        <v>5.850578676179135</v>
       </c>
       <c r="D1150" t="s">
         <v>495</v>
       </c>
       <c r="E1150">
-        <v>5.854012131715754</v>
+        <v>5.911993658343226</v>
       </c>
       <c r="F1150">
         <v>1</v>
       </c>
       <c r="G1150">
-        <v>0.008750181975736586</v>
+        <v>0.008729421323820865</v>
       </c>
       <c r="H1150">
-        <v>0.008785987868284247</v>
+        <v>0.008808006341656774</v>
       </c>
       <c r="I1150">
-        <v>0.02419410745233996</v>
+        <v>0.06141498216409147</v>
       </c>
       <c r="J1150">
-        <v>0.2902946273830191</v>
+        <v>0.2861672611969911</v>
       </c>
       <c r="K1150">
         <v>5.03</v>
@@ -59809,16 +59803,16 @@
         <v>7.29</v>
       </c>
       <c r="M1150">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1150">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1150">
         <v>1</v>
       </c>
       <c r="P1150" t="s">
-        <v>642</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1151" spans="1:16">
@@ -59826,49 +59820,49 @@
         <v>0</v>
       </c>
       <c r="B1151" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C1151">
-        <v>5.35524754596201</v>
+        <v>5.829497400346602</v>
       </c>
       <c r="D1151" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E1151">
-        <v>5.235476883529267</v>
+        <v>5.891109185441923</v>
       </c>
       <c r="F1151">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1151">
-        <v>0.009684752454037989</v>
+        <v>0.008790502599653397</v>
       </c>
       <c r="H1151">
-        <v>0.009624523116470734</v>
+        <v>0.008828890814558078</v>
       </c>
       <c r="I1151">
-        <v>0.1197706624327433</v>
+        <v>0.06161178509532128</v>
       </c>
       <c r="J1151">
-        <v>0.4252951776106071</v>
+        <v>0.2902946273830191</v>
       </c>
       <c r="K1151">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="L1151">
-        <v>7.52</v>
+        <v>7.31</v>
       </c>
       <c r="M1151">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="N1151">
-        <v>7.43</v>
+        <v>7.36</v>
       </c>
       <c r="O1151">
         <v>1</v>
       </c>
       <c r="P1151" t="s">
-        <v>301</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1152" spans="1:16">
@@ -59876,93 +59870,93 @@
         <v>1</v>
       </c>
       <c r="B1152" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C1152">
-        <v>5.140994594185903</v>
+        <v>5.829818024263414</v>
       </c>
       <c r="D1152" t="s">
         <v>495</v>
       </c>
       <c r="E1152">
-        <v>5.172259353066435</v>
+        <v>5.891109185441923</v>
       </c>
       <c r="F1152">
         <v>1</v>
       </c>
       <c r="G1152">
-        <v>0.009479005405814096</v>
+        <v>0.008750181975736586</v>
       </c>
       <c r="H1152">
-        <v>0.009467740646933566</v>
+        <v>0.008828890814558078</v>
       </c>
       <c r="I1152">
-        <v>0.03126475888053193</v>
+        <v>0.06129116117850941</v>
       </c>
       <c r="J1152">
-        <v>0.4252951776106071</v>
+        <v>0.2902946273830191</v>
       </c>
       <c r="K1152">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="L1152">
-        <v>7.31</v>
+        <v>7.29</v>
       </c>
       <c r="M1152">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1152">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1152">
         <v>1</v>
       </c>
       <c r="P1152" t="s">
-        <v>301</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1153" spans="1:16">
       <c r="A1153" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1153" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C1153">
-        <v>5.150765256618646</v>
+        <v>5.35524754596201</v>
       </c>
       <c r="D1153" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E1153">
-        <v>5.172259353066435</v>
+        <v>5.235476883529267</v>
       </c>
       <c r="F1153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1153">
-        <v>0.009429234743381355</v>
+        <v>0.009684752454037989</v>
       </c>
       <c r="H1153">
-        <v>0.009467740646933566</v>
+        <v>0.009624523116470734</v>
       </c>
       <c r="I1153">
-        <v>0.02149409644778899</v>
+        <v>0.1197706624327433</v>
       </c>
       <c r="J1153">
         <v>0.4252951776106071</v>
       </c>
       <c r="K1153">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="L1153">
-        <v>7.29</v>
+        <v>7.52</v>
       </c>
       <c r="M1153">
-        <v>5.05</v>
+        <v>5.16</v>
       </c>
       <c r="N1153">
-        <v>7.32</v>
+        <v>7.43</v>
       </c>
       <c r="O1153">
         <v>1</v>
@@ -59973,152 +59967,152 @@
     </row>
     <row r="1154" spans="1:16">
       <c r="A1154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1154" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C1154">
-        <v>5.084028831949459</v>
+        <v>5.140994594185903</v>
       </c>
       <c r="D1154" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E1154">
-        <v>4.960528246141299</v>
+        <v>5.208006401290328</v>
       </c>
       <c r="F1154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1154">
-        <v>0.009955971168050541</v>
+        <v>0.009479005405814096</v>
       </c>
       <c r="H1154">
-        <v>0.009899471753858703</v>
+        <v>0.009511993598709672</v>
       </c>
       <c r="I1154">
-        <v>0.1235005858081601</v>
+        <v>0.067011807104425</v>
       </c>
       <c r="J1154">
-        <v>0.4785797972594382</v>
+        <v>0.4252951776106071</v>
       </c>
       <c r="K1154">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="L1154">
-        <v>7.52</v>
+        <v>7.31</v>
       </c>
       <c r="M1154">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="N1154">
-        <v>7.43</v>
+        <v>7.36</v>
       </c>
       <c r="O1154">
         <v>1</v>
       </c>
       <c r="P1154" t="s">
-        <v>643</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1155" spans="1:16">
       <c r="A1155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C1155">
-        <v>4.869243033976865</v>
+        <v>5.150765256618646</v>
       </c>
       <c r="D1155" t="s">
         <v>495</v>
       </c>
       <c r="E1155">
-        <v>4.903172023839837</v>
+        <v>5.208006401290328</v>
       </c>
       <c r="F1155">
         <v>1</v>
       </c>
       <c r="G1155">
-        <v>0.009750756966023134</v>
+        <v>0.009429234743381355</v>
       </c>
       <c r="H1155">
-        <v>0.009736827976160165</v>
+        <v>0.009511993598709672</v>
       </c>
       <c r="I1155">
-        <v>0.03392898986297244</v>
+        <v>0.05724114467168206</v>
       </c>
       <c r="J1155">
-        <v>0.4785797972594382</v>
+        <v>0.4252951776106071</v>
       </c>
       <c r="K1155">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="L1155">
-        <v>7.31</v>
+        <v>7.29</v>
       </c>
       <c r="M1155">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1155">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1155">
         <v>1</v>
       </c>
       <c r="P1155" t="s">
-        <v>643</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1156" spans="1:16">
       <c r="A1156" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C1156">
-        <v>4.882743619785026</v>
+        <v>5.172259353066435</v>
       </c>
       <c r="D1156" t="s">
         <v>495</v>
       </c>
       <c r="E1156">
-        <v>4.903172023839837</v>
+        <v>5.208006401290328</v>
       </c>
       <c r="F1156">
         <v>1</v>
       </c>
       <c r="G1156">
-        <v>0.009697256380214974</v>
+        <v>0.009467740646933566</v>
       </c>
       <c r="H1156">
-        <v>0.009736827976160165</v>
+        <v>0.009511993598709672</v>
       </c>
       <c r="I1156">
-        <v>0.02042840405481172</v>
+        <v>0.03574704822389307</v>
       </c>
       <c r="J1156">
-        <v>0.4785797972594382</v>
+        <v>0.4252951776106071</v>
       </c>
       <c r="K1156">
-        <v>5.03</v>
+        <v>5.05</v>
       </c>
       <c r="L1156">
-        <v>7.29</v>
+        <v>7.32</v>
       </c>
       <c r="M1156">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1156">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1156">
         <v>1</v>
       </c>
       <c r="P1156" t="s">
-        <v>643</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1157" spans="1:16">
@@ -60129,28 +60123,28 @@
         <v>310</v>
       </c>
       <c r="C1157">
-        <v>4.861304947863417</v>
+        <v>5.084028831949459</v>
       </c>
       <c r="D1157" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E1157">
-        <v>4.734741361684722</v>
+        <v>4.960528246141299</v>
       </c>
       <c r="F1157">
         <v>-1</v>
       </c>
       <c r="G1157">
-        <v>0.01017869505213658</v>
+        <v>0.009955971168050541</v>
       </c>
       <c r="H1157">
-        <v>0.01012525863831528</v>
+        <v>0.009899471753858703</v>
       </c>
       <c r="I1157">
-        <v>0.1265635861786949</v>
+        <v>0.1235005858081601</v>
       </c>
       <c r="J1157">
-        <v>0.5223369454099376</v>
+        <v>0.4785797972594382</v>
       </c>
       <c r="K1157">
         <v>5.09</v>
@@ -60168,7 +60162,7 @@
         <v>1</v>
       </c>
       <c r="P1157" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1158" spans="1:16">
@@ -60179,28 +60173,28 @@
         <v>308</v>
       </c>
       <c r="C1158">
-        <v>4.646081578409318</v>
+        <v>4.869243033976865</v>
       </c>
       <c r="D1158" t="s">
         <v>495</v>
       </c>
       <c r="E1158">
-        <v>4.682198425679815</v>
+        <v>4.938386225867243</v>
       </c>
       <c r="F1158">
         <v>1</v>
       </c>
       <c r="G1158">
-        <v>0.009973918421590683</v>
+        <v>0.009750756966023134</v>
       </c>
       <c r="H1158">
-        <v>0.009957801574320186</v>
+        <v>0.009781613774132758</v>
       </c>
       <c r="I1158">
-        <v>0.03611684727049713</v>
+        <v>0.06914319189037776</v>
       </c>
       <c r="J1158">
-        <v>0.5223369454099376</v>
+        <v>0.4785797972594382</v>
       </c>
       <c r="K1158">
         <v>5.1</v>
@@ -60209,16 +60203,16 @@
         <v>7.31</v>
       </c>
       <c r="M1158">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1158">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1158">
         <v>1</v>
       </c>
       <c r="P1158" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1159" spans="1:16">
@@ -60229,28 +60223,28 @@
         <v>309</v>
       </c>
       <c r="C1159">
-        <v>4.662645164588014</v>
+        <v>4.882743619785026</v>
       </c>
       <c r="D1159" t="s">
         <v>495</v>
       </c>
       <c r="E1159">
-        <v>4.682198425679815</v>
+        <v>4.938386225867243</v>
       </c>
       <c r="F1159">
         <v>1</v>
       </c>
       <c r="G1159">
-        <v>0.009917354835411986</v>
+        <v>0.009697256380214974</v>
       </c>
       <c r="H1159">
-        <v>0.009957801574320186</v>
+        <v>0.009781613774132758</v>
       </c>
       <c r="I1159">
-        <v>0.01955326109180167</v>
+        <v>0.05564260608221705</v>
       </c>
       <c r="J1159">
-        <v>0.5223369454099376</v>
+        <v>0.4785797972594382</v>
       </c>
       <c r="K1159">
         <v>5.03</v>
@@ -60259,298 +60253,298 @@
         <v>7.29</v>
       </c>
       <c r="M1159">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1159">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1159">
         <v>1</v>
       </c>
       <c r="P1159" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1160" spans="1:16">
       <c r="A1160" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C1160">
-        <v>4.410477056828364</v>
+        <v>4.903172023839837</v>
       </c>
       <c r="D1160" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E1160">
-        <v>4.277713480006749</v>
+        <v>4.938386225867243</v>
       </c>
       <c r="F1160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1160">
-        <v>0.01062952294317164</v>
+        <v>0.009736827976160165</v>
       </c>
       <c r="H1160">
-        <v>0.01058228651999325</v>
+        <v>0.009781613774132758</v>
       </c>
       <c r="I1160">
-        <v>0.1327635768216142</v>
+        <v>0.03521420202740533</v>
       </c>
       <c r="J1160">
-        <v>0.6109082403087693</v>
+        <v>0.4785797972594382</v>
       </c>
       <c r="K1160">
-        <v>5.09</v>
+        <v>5.05</v>
       </c>
       <c r="L1160">
-        <v>7.52</v>
+        <v>7.32</v>
       </c>
       <c r="M1160">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="N1160">
-        <v>7.43</v>
+        <v>7.36</v>
       </c>
       <c r="O1160">
         <v>1</v>
       </c>
       <c r="P1160" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1161" spans="1:16">
       <c r="A1161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C1161">
-        <v>4.194367974425276</v>
+        <v>4.861304947863417</v>
       </c>
       <c r="D1161" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E1161">
-        <v>4.234913386440715</v>
+        <v>4.734741361684722</v>
       </c>
       <c r="F1161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1161">
-        <v>0.01042563202557472</v>
+        <v>0.01017869505213658</v>
       </c>
       <c r="H1161">
-        <v>0.01040508661355929</v>
+        <v>0.01012525863831528</v>
       </c>
       <c r="I1161">
-        <v>0.04054541201543849</v>
+        <v>0.1265635861786949</v>
       </c>
       <c r="J1161">
-        <v>0.6109082403087693</v>
+        <v>0.5223369454099376</v>
       </c>
       <c r="K1161">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="L1161">
-        <v>7.31</v>
+        <v>7.52</v>
       </c>
       <c r="M1161">
-        <v>5.05</v>
+        <v>5.16</v>
       </c>
       <c r="N1161">
-        <v>7.32</v>
+        <v>7.43</v>
       </c>
       <c r="O1161">
         <v>1</v>
       </c>
       <c r="P1161" t="s">
-        <v>644</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1162" spans="1:16">
       <c r="A1162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1162">
-        <v>4.21713155124689</v>
+        <v>4.646081578409318</v>
       </c>
       <c r="D1162" t="s">
         <v>495</v>
       </c>
       <c r="E1162">
-        <v>4.234913386440715</v>
+        <v>4.716975056225716</v>
       </c>
       <c r="F1162">
         <v>1</v>
       </c>
       <c r="G1162">
-        <v>0.01036286844875311</v>
+        <v>0.009973918421590683</v>
       </c>
       <c r="H1162">
-        <v>0.01040508661355929</v>
+        <v>0.01000302494377429</v>
       </c>
       <c r="I1162">
-        <v>0.01778183519382459</v>
+        <v>0.07089347781639788</v>
       </c>
       <c r="J1162">
-        <v>0.6109082403087693</v>
+        <v>0.5223369454099376</v>
       </c>
       <c r="K1162">
-        <v>5.03</v>
+        <v>5.1</v>
       </c>
       <c r="L1162">
-        <v>7.29</v>
+        <v>7.31</v>
       </c>
       <c r="M1162">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1162">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1162">
         <v>1</v>
       </c>
       <c r="P1162" t="s">
-        <v>644</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1163" spans="1:16">
       <c r="A1163" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C1163">
-        <v>4.579720961796916</v>
+        <v>4.662645164588014</v>
       </c>
       <c r="D1163" t="s">
         <v>495</v>
       </c>
       <c r="E1163">
-        <v>4.616488403347928</v>
+        <v>4.716975056225716</v>
       </c>
       <c r="F1163">
         <v>1</v>
       </c>
       <c r="G1163">
-        <v>0.01004027903820308</v>
+        <v>0.009917354835411986</v>
       </c>
       <c r="H1163">
-        <v>0.01002351159665207</v>
+        <v>0.01000302494377429</v>
       </c>
       <c r="I1163">
-        <v>0.03676744155101197</v>
+        <v>0.05432989163770241</v>
       </c>
       <c r="J1163">
-        <v>0.5353488310202125</v>
+        <v>0.5223369454099376</v>
       </c>
       <c r="K1163">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="L1163">
-        <v>7.31</v>
+        <v>7.29</v>
       </c>
       <c r="M1163">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1163">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1163">
         <v>1</v>
       </c>
       <c r="P1163" t="s">
-        <v>645</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1164" spans="1:16">
       <c r="A1164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C1164">
-        <v>4.597195379968332</v>
+        <v>4.410477056828364</v>
       </c>
       <c r="D1164" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E1164">
-        <v>4.616488403347928</v>
+        <v>4.277713480006749</v>
       </c>
       <c r="F1164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1164">
-        <v>0.009982804620031668</v>
+        <v>0.01062952294317164</v>
       </c>
       <c r="H1164">
-        <v>0.01002351159665207</v>
+        <v>0.01058228651999325</v>
       </c>
       <c r="I1164">
-        <v>0.01929302337959626</v>
+        <v>0.1327635768216142</v>
       </c>
       <c r="J1164">
-        <v>0.5353488310202125</v>
+        <v>0.6109082403087693</v>
       </c>
       <c r="K1164">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="L1164">
-        <v>7.29</v>
+        <v>7.52</v>
       </c>
       <c r="M1164">
-        <v>5.05</v>
+        <v>5.16</v>
       </c>
       <c r="N1164">
-        <v>7.32</v>
+        <v>7.43</v>
       </c>
       <c r="O1164">
         <v>1</v>
       </c>
       <c r="P1164" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1165" spans="1:16">
       <c r="A1165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1165" t="s">
         <v>308</v>
       </c>
       <c r="C1165">
-        <v>4.844065934065937</v>
+        <v>4.194367974425276</v>
       </c>
       <c r="D1165" t="s">
         <v>495</v>
       </c>
       <c r="E1165">
-        <v>4.878241758241762</v>
+        <v>4.268804304037628</v>
       </c>
       <c r="F1165">
         <v>1</v>
       </c>
       <c r="G1165">
-        <v>0.009775934065934064</v>
+        <v>0.01042563202557472</v>
       </c>
       <c r="H1165">
-        <v>0.009761758241758239</v>
+        <v>0.01045119569596237</v>
       </c>
       <c r="I1165">
-        <v>0.03417582417582476</v>
+        <v>0.07443632961235203</v>
       </c>
       <c r="J1165">
-        <v>0.4835164835164829</v>
+        <v>0.6109082403087693</v>
       </c>
       <c r="K1165">
         <v>5.1</v>
@@ -60559,48 +60553,48 @@
         <v>7.31</v>
       </c>
       <c r="M1165">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1165">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1165">
         <v>1</v>
       </c>
       <c r="P1165" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1166" spans="1:16">
       <c r="A1166" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1166" t="s">
         <v>309</v>
       </c>
       <c r="C1166">
-        <v>4.857912087912091</v>
+        <v>4.21713155124689</v>
       </c>
       <c r="D1166" t="s">
         <v>495</v>
       </c>
       <c r="E1166">
-        <v>4.878241758241762</v>
+        <v>4.268804304037628</v>
       </c>
       <c r="F1166">
         <v>1</v>
       </c>
       <c r="G1166">
-        <v>0.009722087912087909</v>
+        <v>0.01036286844875311</v>
       </c>
       <c r="H1166">
-        <v>0.009761758241758239</v>
+        <v>0.01045119569596237</v>
       </c>
       <c r="I1166">
-        <v>0.02032967032967115</v>
+        <v>0.05167275279073813</v>
       </c>
       <c r="J1166">
-        <v>0.4835164835164829</v>
+        <v>0.6109082403087693</v>
       </c>
       <c r="K1166">
         <v>5.03</v>
@@ -60609,16 +60603,16 @@
         <v>7.29</v>
       </c>
       <c r="M1166">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1166">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1166">
         <v>1</v>
       </c>
       <c r="P1166" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1167" spans="1:16">
@@ -60629,28 +60623,28 @@
         <v>308</v>
       </c>
       <c r="C1167">
-        <v>4.976232772849881</v>
+        <v>4.579720961796916</v>
       </c>
       <c r="D1167" t="s">
         <v>495</v>
       </c>
       <c r="E1167">
-        <v>5.009112843704294</v>
+        <v>4.651134915037725</v>
       </c>
       <c r="F1167">
         <v>1</v>
       </c>
       <c r="G1167">
-        <v>0.009643767227150117</v>
+        <v>0.01004027903820308</v>
       </c>
       <c r="H1167">
-        <v>0.009630887156295707</v>
+        <v>0.01006886508496228</v>
       </c>
       <c r="I1167">
-        <v>0.03288007085441347</v>
+        <v>0.07141395324080957</v>
       </c>
       <c r="J1167">
-        <v>0.4576014170882586</v>
+        <v>0.5353488310202125</v>
       </c>
       <c r="K1167">
         <v>5.1</v>
@@ -60659,16 +60653,16 @@
         <v>7.31</v>
       </c>
       <c r="M1167">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1167">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1167">
         <v>1</v>
       </c>
       <c r="P1167" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1168" spans="1:16">
@@ -60679,28 +60673,28 @@
         <v>309</v>
       </c>
       <c r="C1168">
-        <v>4.988264872046059</v>
+        <v>4.597195379968332</v>
       </c>
       <c r="D1168" t="s">
         <v>495</v>
       </c>
       <c r="E1168">
-        <v>5.009112843704294</v>
+        <v>4.651134915037725</v>
       </c>
       <c r="F1168">
         <v>1</v>
       </c>
       <c r="G1168">
-        <v>0.009591735127953941</v>
+        <v>0.009982804620031668</v>
       </c>
       <c r="H1168">
-        <v>0.009630887156295707</v>
+        <v>0.01006886508496228</v>
       </c>
       <c r="I1168">
-        <v>0.0208479716582346</v>
+        <v>0.05393953506939386</v>
       </c>
       <c r="J1168">
-        <v>0.4576014170882586</v>
+        <v>0.5353488310202125</v>
       </c>
       <c r="K1168">
         <v>5.03</v>
@@ -60709,16 +60703,16 @@
         <v>7.29</v>
       </c>
       <c r="M1168">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1168">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1168">
         <v>1</v>
       </c>
       <c r="P1168" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1169" spans="1:16">
@@ -60726,40 +60720,40 @@
         <v>0</v>
       </c>
       <c r="B1169" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C1169">
-        <v>5.221532908193963</v>
+        <v>4.844065934065937</v>
       </c>
       <c r="D1169" t="s">
-        <v>307</v>
+        <v>495</v>
       </c>
       <c r="E1169">
-        <v>5.164447920426747</v>
+        <v>4.913406593406597</v>
       </c>
       <c r="F1169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1169">
-        <v>0.009638467091806036</v>
+        <v>0.009775934065934064</v>
       </c>
       <c r="H1169">
-        <v>0.009555552079573254</v>
+        <v>0.009806593406593404</v>
       </c>
       <c r="I1169">
-        <v>0.05708498776721527</v>
+        <v>0.0693406593406598</v>
       </c>
       <c r="J1169">
-        <v>0.4305004077594615</v>
+        <v>0.4835164835164829</v>
       </c>
       <c r="K1169">
-        <v>5.13</v>
+        <v>5.1</v>
       </c>
       <c r="L1169">
-        <v>7.43</v>
+        <v>7.31</v>
       </c>
       <c r="M1169">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
       <c r="N1169">
         <v>7.36</v>
@@ -60768,7 +60762,7 @@
         <v>1</v>
       </c>
       <c r="P1169" t="s">
-        <v>303</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1170" spans="1:16">
@@ -60776,149 +60770,149 @@
         <v>1</v>
       </c>
       <c r="B1170" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C1170">
-        <v>5.114447920426747</v>
+        <v>4.857912087912091</v>
       </c>
       <c r="D1170" t="s">
         <v>495</v>
       </c>
       <c r="E1170">
-        <v>5.14597294081472</v>
+        <v>4.913406593406597</v>
       </c>
       <c r="F1170">
         <v>1</v>
       </c>
       <c r="G1170">
-        <v>0.009505552079573253</v>
+        <v>0.009722087912087909</v>
       </c>
       <c r="H1170">
-        <v>0.009494027059185282</v>
+        <v>0.009806593406593404</v>
       </c>
       <c r="I1170">
-        <v>0.03152502038797333</v>
+        <v>0.05549450549450619</v>
       </c>
       <c r="J1170">
-        <v>0.4305004077594615</v>
+        <v>0.4835164835164829</v>
       </c>
       <c r="K1170">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="L1170">
-        <v>7.31</v>
+        <v>7.29</v>
       </c>
       <c r="M1170">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1170">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1170">
         <v>1</v>
       </c>
       <c r="P1170" t="s">
-        <v>303</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1171" spans="1:16">
       <c r="A1171" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1171" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1171">
-        <v>5.124582948969909</v>
+        <v>4.976232772849881</v>
       </c>
       <c r="D1171" t="s">
         <v>495</v>
       </c>
       <c r="E1171">
-        <v>5.14597294081472</v>
+        <v>5.044536829533412</v>
       </c>
       <c r="F1171">
         <v>1</v>
       </c>
       <c r="G1171">
-        <v>0.009455417051030091</v>
+        <v>0.009643767227150117</v>
       </c>
       <c r="H1171">
-        <v>0.009494027059185282</v>
+        <v>0.009675463170466589</v>
       </c>
       <c r="I1171">
-        <v>0.02138999184481083</v>
+        <v>0.06830405668353112</v>
       </c>
       <c r="J1171">
-        <v>0.4305004077594615</v>
+        <v>0.4576014170882586</v>
       </c>
       <c r="K1171">
-        <v>5.03</v>
+        <v>5.1</v>
       </c>
       <c r="L1171">
-        <v>7.29</v>
+        <v>7.31</v>
       </c>
       <c r="M1171">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="N1171">
-        <v>7.32</v>
+        <v>7.36</v>
       </c>
       <c r="O1171">
         <v>1</v>
       </c>
       <c r="P1171" t="s">
-        <v>303</v>
+        <v>646</v>
       </c>
     </row>
     <row r="1172" spans="1:16">
       <c r="A1172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1172" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C1172">
-        <v>5.595169716255639</v>
+        <v>4.988264872046059</v>
       </c>
       <c r="D1172" t="s">
-        <v>309</v>
+        <v>495</v>
       </c>
       <c r="E1172">
-        <v>5.545973216653411</v>
+        <v>5.044536829533412</v>
       </c>
       <c r="F1172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1172">
-        <v>0.009124830283744362</v>
+        <v>0.009591735127953941</v>
       </c>
       <c r="H1172">
-        <v>0.009034026783346588</v>
+        <v>0.009675463170466589</v>
       </c>
       <c r="I1172">
-        <v>0.04919649960222827</v>
+        <v>0.05627195748735225</v>
       </c>
       <c r="J1172">
-        <v>0.3467250066295405</v>
+        <v>0.4576014170882586</v>
       </c>
       <c r="K1172">
-        <v>5.09</v>
+        <v>5.03</v>
       </c>
       <c r="L1172">
+        <v>7.29</v>
+      </c>
+      <c r="M1172">
+        <v>5.06</v>
+      </c>
+      <c r="N1172">
         <v>7.36</v>
       </c>
-      <c r="M1172">
-        <v>5.03</v>
-      </c>
-      <c r="N1172">
-        <v>7.29</v>
-      </c>
       <c r="O1172">
         <v>1</v>
       </c>
       <c r="P1172" t="s">
-        <v>307</v>
+        <v>646</v>
       </c>
     </row>
     <row r="1173" spans="1:16">
@@ -60929,96 +60923,146 @@
         <v>312</v>
       </c>
       <c r="C1173">
-        <v>5.264149594536922</v>
+        <v>5.221532908193963</v>
       </c>
       <c r="D1173" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1173">
-        <v>5.218855100298764</v>
+        <v>5.164447920426747</v>
       </c>
       <c r="F1173">
         <v>-1</v>
       </c>
       <c r="G1173">
-        <v>0.009455850405463078</v>
+        <v>0.009638467091806036</v>
       </c>
       <c r="H1173">
-        <v>0.009361144899701235</v>
+        <v>0.009555552079573254</v>
       </c>
       <c r="I1173">
-        <v>0.04529449423815723</v>
+        <v>0.05708498776721527</v>
       </c>
       <c r="J1173">
-        <v>0.4117584293640626</v>
+        <v>0.4305004077594615</v>
       </c>
       <c r="K1173">
-        <v>5.09</v>
+        <v>5.13</v>
       </c>
       <c r="L1173">
+        <v>7.43</v>
+      </c>
+      <c r="M1173">
+        <v>5.1</v>
+      </c>
+      <c r="N1173">
         <v>7.36</v>
       </c>
-      <c r="M1173">
-        <v>5.03</v>
-      </c>
-      <c r="N1173">
-        <v>7.29</v>
-      </c>
       <c r="O1173">
         <v>1</v>
       </c>
       <c r="P1173" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1174" spans="1:16">
       <c r="A1174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1174" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C1174">
-        <v>5.063743064447291</v>
+        <v>5.114447920426747</v>
       </c>
       <c r="D1174" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1174">
+        <v>5.181667936737126</v>
+      </c>
+      <c r="F1174">
+        <v>1</v>
+      </c>
+      <c r="G1174">
+        <v>0.009505552079573253</v>
+      </c>
+      <c r="H1174">
+        <v>0.009538332063262874</v>
+      </c>
+      <c r="I1174">
+        <v>0.06722001631037955</v>
+      </c>
+      <c r="J1174">
+        <v>0.4305004077594615</v>
+      </c>
+      <c r="K1174">
+        <v>5.1</v>
+      </c>
+      <c r="L1174">
+        <v>7.31</v>
+      </c>
+      <c r="M1174">
+        <v>5.06</v>
+      </c>
+      <c r="N1174">
+        <v>7.36</v>
+      </c>
+      <c r="O1174">
+        <v>1</v>
+      </c>
+      <c r="P1174" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:16">
+      <c r="A1175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1175" t="s">
         <v>309</v>
       </c>
-      <c r="E1174">
-        <v>5.020810926163039</v>
-      </c>
-      <c r="F1174">
-        <v>-1</v>
-      </c>
-      <c r="G1174">
-        <v>0.00965625693555271</v>
-      </c>
-      <c r="H1174">
-        <v>0.009559189073836962</v>
-      </c>
-      <c r="I1174">
-        <v>0.04293213828425202</v>
-      </c>
-      <c r="J1174">
-        <v>0.4511310285958173</v>
-      </c>
-      <c r="K1174">
-        <v>5.09</v>
-      </c>
-      <c r="L1174">
+      <c r="C1175">
+        <v>5.124582948969909</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1175">
+        <v>5.181667936737126</v>
+      </c>
+      <c r="F1175">
+        <v>1</v>
+      </c>
+      <c r="G1175">
+        <v>0.009455417051030091</v>
+      </c>
+      <c r="H1175">
+        <v>0.009538332063262874</v>
+      </c>
+      <c r="I1175">
+        <v>0.05708498776721704</v>
+      </c>
+      <c r="J1175">
+        <v>0.4305004077594615</v>
+      </c>
+      <c r="K1175">
+        <v>5.03</v>
+      </c>
+      <c r="L1175">
+        <v>7.29</v>
+      </c>
+      <c r="M1175">
+        <v>5.06</v>
+      </c>
+      <c r="N1175">
         <v>7.36</v>
       </c>
-      <c r="M1174">
-        <v>5.03</v>
-      </c>
-      <c r="N1174">
-        <v>7.29</v>
-      </c>
-      <c r="O1174">
-        <v>1</v>
-      </c>
-      <c r="P1174" t="s">
-        <v>648</v>
+      <c r="O1175">
+        <v>1</v>
+      </c>
+      <c r="P1175" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
